--- a/Documentos/Municipales_Exógena.xlsx
+++ b/Documentos/Municipales_Exógena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2024\ASEGURAMIENTO\Presentación de Proc Tributario\Exogena\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sophosbanking-my.sharepoint.com/personal/jeisson_gallego_sophossolutions_com/Documents/CARPETA PERSONAL/PRACTICAS/BINTEC/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{54728EF3-6B56-4D1C-926F-CFC12F301D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8203150F-4B83-4E6A-820E-207CAF43FE61}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{54728EF3-6B56-4D1C-926F-CFC12F301D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F604A6C5-BC43-43AD-A5B6-097AC4E4096B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7D5CB108-22B7-4ACF-A890-D2E1A674BAB5}"/>
+    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{7D5CB108-22B7-4ACF-A890-D2E1A674BAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,10 +828,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -839,9 +839,10 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="57.75">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -879,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="144.75">
+    <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -917,7 +918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="144.75">
+    <row r="3" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -955,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="144.75">
+    <row r="4" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -993,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="144.75">
+    <row r="5" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72.75">
+    <row r="6" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72.75">
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72.75">
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="87">
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="130.5">
+    <row r="11" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="115.5">
+    <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.5">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1">
+    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="115.5">
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1413,15 +1414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D767263960BAD46B587A5E9AB148C12" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="68d1f4546788540fd4d289c48f3739f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d5535952-77a3-45c5-9e38-cc34e0590af3" xmlns:ns3="0c097936-5685-45aa-9bd9-362f2e7be4a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88e29db87d39e5057b09e8cff1ac17ac" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1681,10 +1673,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD88CDA1-5646-4D7F-A1F6-13C1EED7AF2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C27925C-BC99-40F0-B276-FE19D70DBE32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d5535952-77a3-45c5-9e38-cc34e0590af3"/>
+    <ds:schemaRef ds:uri="0c097936-5685-45aa-9bd9-362f2e7be4a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C27925C-BC99-40F0-B276-FE19D70DBE32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD88CDA1-5646-4D7F-A1F6-13C1EED7AF2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>